--- a/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
+++ b/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -502,15 +512,25 @@
       </c>
       <c r="D2" t="inlineStr">
         <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
           <t>88.89</t>
         </is>
       </c>
-      <c r="E2" t="inlineStr">
+      <c r="F2" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
         <v>6</v>
       </c>
     </row>
@@ -530,15 +550,25 @@
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.89</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.18</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>6</v>
       </c>
     </row>
@@ -553,7 +583,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -574,15 +604,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -594,26 +634,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>80.88</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>2.81</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>1</v>
+          <t>88.21</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0280</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -622,25 +672,35 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
           <t>88.21</t>
         </is>
       </c>
-      <c r="E3" t="inlineStr">
+      <c r="F3" t="inlineStr">
         <is>
           <t>1.49</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0067</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
         <v>4</v>
       </c>
     </row>
@@ -650,26 +710,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007089</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强C</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>1.49</t>
-        </is>
-      </c>
-      <c r="F4" t="n">
-        <v>4</v>
+          <t>80.88</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.81</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
+++ b/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -745,4 +746,516 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H13"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>161017</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>富国中证500指数增强(LOF)</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>59.10</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.6324</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006255</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006256</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
+++ b/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1258,4 +1259,1352 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H35"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>007872</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>金信稳健策略灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>18.70</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>93.74</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.77</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2660</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001150</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>融通互联网传媒灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>11.82</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.73</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.99</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.5898</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>519957</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>16.73</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.3580</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519956</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长信睿进灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>16.71</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>22.74</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.3576</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>16.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.16</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.56</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.2516</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000823</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>银华高端制造业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>4.15</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>82.77</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.2075</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>002311</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>9.10</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.1128</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>006048</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0857</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>002256</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>金信行业优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0776</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002316</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>创金合信中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0498</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007413</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>长城中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>1.96</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0461</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>009658</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>1.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0335</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009726</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.0270</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>519937</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>长信先锐混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>95.81</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>1.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.0223</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011824</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.0203</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000767</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>华富国泰民安灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>72.08</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.0180</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>006255</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>0.46</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0128</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009727</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>招商中证500等权重指数增强C</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.65</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0100</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>0.62</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.65</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>1.54</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0095</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>001795</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>上投摩根文体休闲灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>82.05</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.44</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>003717</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0091</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>92.55</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0082</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011825</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>浙商汇金量化臻选股票型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>80.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0058</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>519034</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.31</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0057</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.27</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>73.50</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.07</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0029</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009775</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇丰晋信中小盘低波动策略股票C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>92.15</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>2.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0018</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.83</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>0.39</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004790</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>006256</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.77</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.79</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>004791</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富荣中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>93.28</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>008918</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长信先锐混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>29.78</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>009004</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>海富通中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>89.70</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>010484</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中银量化精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>1.65</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0002</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
+++ b/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2607,4 +2608,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>34</v>
+      </c>
+      <c r="D2" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>12</v>
+      </c>
+      <c r="D3" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>3</v>
+      </c>
+      <c r="D4" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.03</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
+++ b/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2616,7 +2617,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2627,17 +2628,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2647,14 +2668,88 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>90.59</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0104</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>5</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>34</v>
+        <v>1</v>
       </c>
       <c r="D2" t="n">
-        <v>3.63</v>
+        <v>0.01</v>
       </c>
     </row>
     <row r="3">
@@ -2663,14 +2758,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>12</v>
+        <v>34</v>
       </c>
       <c r="D3" t="n">
-        <v>1.04</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="4">
@@ -2679,14 +2774,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>3</v>
+        <v>12</v>
       </c>
       <c r="D4" t="n">
-        <v>0.04</v>
+        <v>1.04</v>
       </c>
     </row>
     <row r="5">
@@ -2695,13 +2790,29 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>3</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>2</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
+++ b/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2711,7 +2712,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2722,17 +2723,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2742,14 +2763,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>1</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.01</v>
+          <t>002453</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>0.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -2758,14 +2801,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>34</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.63</v>
+          <t>002454</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>九泰久稳灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>87.99</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.20</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0070</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -2774,14 +2839,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>12</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.04</v>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="5">
@@ -2790,14 +2877,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>3</v>
-      </c>
-      <c r="D5" t="n">
-        <v>0.04</v>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="6">
@@ -2806,13 +2915,167 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>2</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.03</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
+++ b/数据整理/stocks/A股/上证主板/600171-上海贝岭.xlsx
@@ -6,13 +6,13 @@
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" xWindow="240" yWindow="15" windowWidth="16095" windowHeight="9660" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -456,129 +456,129 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H3"/>
+  <dimension ref="A1:D7"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
     </row>
     <row r="2">
-      <c r="A2" s="1" t="n">
+      <c r="A2" s="2" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005994</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强A</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>1.75</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.0206</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>6</v>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>0.02</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="1" t="n">
+      <c r="A3" s="2" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007089</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>国投瑞银中证500指数量化增强C</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>88.89</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.18</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0053</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>6</v>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>1</v>
+      </c>
+      <c r="D3" t="n">
+        <v>0.01</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>34</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>12</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.04</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>3</v>
+      </c>
+      <c r="D6" t="n">
+        <v>0.04</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>0.03</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
 
@@ -588,7 +588,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H4"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -609,7 +609,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -639,36 +639,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>005994</t>
+          <t>002453</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强A</t>
+          <t>九泰久稳灵活配置混合A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>1.88</t>
+          <t>0.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0280</t>
+          <t>0.0083</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -677,36 +677,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>007089</t>
+          <t>002454</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>国投瑞银中证500指数量化增强C</t>
+          <t>九泰久稳灵活配置混合C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.45</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>88.21</t>
+          <t>87.99</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>1.49</t>
+          <t>3.20</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0067</t>
+          <t>0.0070</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
     </row>
     <row r="4">
@@ -715,36 +715,112 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>005126</t>
+          <t>165524</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>银河量化稳进混合</t>
+          <t>信诚中证智能家居指数（LOF）</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.11</t>
+          <t>0.40</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>80.88</t>
+          <t>94.17</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>2.81</t>
+          <t>1.20</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0031</t>
+          <t>0.0048</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>1</v>
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>004536</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>93.03</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0024</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>013084</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）C</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>94.17</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -758,7 +834,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H13"/>
+  <dimension ref="A1:H2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -779,7 +855,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金金额</t>
+          <t>基金规模</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -809,454 +885,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>161017</t>
+          <t>004536</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>富国中证500指数增强(LOF)</t>
+          <t>嘉实中小企业量化活力灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>59.10</t>
+          <t>0.22</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>91.15</t>
+          <t>90.59</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>1.07</t>
+          <t>4.72</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.6324</t>
+          <t>0.0104</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="2" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>003318</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>景顺长城中证500行业中性低波动指数</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>15.40</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>94.04</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.2218</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>002076</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>5.47</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0788</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>519677</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>银河定投宝中证腾讯济安价值100A股指数</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>2.30</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>94.05</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.09</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0251</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>512260</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>华安中证500行业中性低波动ETF</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>96.36</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.48</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0201</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
         <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>007386</t>
-        </is>
-      </c>
-      <c r="C7" t="inlineStr">
-        <is>
-          <t>浙商中证500指数增强C</t>
-        </is>
-      </c>
-      <c r="D7" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="E7" t="inlineStr">
-        <is>
-          <t>88.59</t>
-        </is>
-      </c>
-      <c r="F7" t="inlineStr">
-        <is>
-          <t>1.44</t>
-        </is>
-      </c>
-      <c r="G7" t="inlineStr">
-        <is>
-          <t>0.0196</t>
-        </is>
-      </c>
-      <c r="H7" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="8">
-      <c r="A8" s="2" t="n">
-        <v>6</v>
-      </c>
-      <c r="B8" t="inlineStr">
-        <is>
-          <t>006255</t>
-        </is>
-      </c>
-      <c r="C8" t="inlineStr">
-        <is>
-          <t>中邮中证价值回报量化策略指数A</t>
-        </is>
-      </c>
-      <c r="D8" t="inlineStr">
-        <is>
-          <t>0.49</t>
-        </is>
-      </c>
-      <c r="E8" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F8" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G8" t="inlineStr">
-        <is>
-          <t>0.0115</t>
-        </is>
-      </c>
-      <c r="H8" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="9">
-      <c r="A9" s="2" t="n">
-        <v>7</v>
-      </c>
-      <c r="B9" t="inlineStr">
-        <is>
-          <t>004352</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>北信瑞丰研究精选股票</t>
-        </is>
-      </c>
-      <c r="D9" t="inlineStr">
-        <is>
-          <t>0.78</t>
-        </is>
-      </c>
-      <c r="E9" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F9" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G9" t="inlineStr">
-        <is>
-          <t>0.0106</t>
-        </is>
-      </c>
-      <c r="H9" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="10">
-      <c r="A10" s="2" t="n">
-        <v>8</v>
-      </c>
-      <c r="B10" t="inlineStr">
-        <is>
-          <t>165524</t>
-        </is>
-      </c>
-      <c r="C10" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）</t>
-        </is>
-      </c>
-      <c r="D10" t="inlineStr">
-        <is>
-          <t>0.66</t>
-        </is>
-      </c>
-      <c r="E10" t="inlineStr">
-        <is>
-          <t>94.33</t>
-        </is>
-      </c>
-      <c r="F10" t="inlineStr">
-        <is>
-          <t>1.23</t>
-        </is>
-      </c>
-      <c r="G10" t="inlineStr">
-        <is>
-          <t>0.0081</t>
-        </is>
-      </c>
-      <c r="H10" t="n">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="11">
-      <c r="A11" s="2" t="n">
-        <v>9</v>
-      </c>
-      <c r="B11" t="inlineStr">
-        <is>
-          <t>007808</t>
-        </is>
-      </c>
-      <c r="C11" t="inlineStr">
-        <is>
-          <t>北信瑞丰量化优选灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D11" t="inlineStr">
-        <is>
-          <t>0.37</t>
-        </is>
-      </c>
-      <c r="E11" t="inlineStr">
-        <is>
-          <t>79.34</t>
-        </is>
-      </c>
-      <c r="F11" t="inlineStr">
-        <is>
-          <t>1.41</t>
-        </is>
-      </c>
-      <c r="G11" t="inlineStr">
-        <is>
-          <t>0.0052</t>
-        </is>
-      </c>
-      <c r="H11" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="12">
-      <c r="A12" s="2" t="n">
-        <v>10</v>
-      </c>
-      <c r="B12" t="inlineStr">
-        <is>
-          <t>515590</t>
-        </is>
-      </c>
-      <c r="C12" t="inlineStr">
-        <is>
-          <t>前海开源中证500等权重ETF</t>
-        </is>
-      </c>
-      <c r="D12" t="inlineStr">
-        <is>
-          <t>0.45</t>
-        </is>
-      </c>
-      <c r="E12" t="inlineStr">
-        <is>
-          <t>93.04</t>
-        </is>
-      </c>
-      <c r="F12" t="inlineStr">
-        <is>
-          <t>0.35</t>
-        </is>
-      </c>
-      <c r="G12" t="inlineStr">
-        <is>
-          <t>0.0016</t>
-        </is>
-      </c>
-      <c r="H12" t="n">
-        <v>1</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" s="2" t="n">
-        <v>11</v>
-      </c>
-      <c r="B13" t="inlineStr">
-        <is>
-          <t>006256</t>
-        </is>
-      </c>
-      <c r="C13" t="inlineStr">
-        <is>
-          <t>中邮中证价值回报量化策略指数C</t>
-        </is>
-      </c>
-      <c r="D13" t="inlineStr">
-        <is>
-          <t>0.05</t>
-        </is>
-      </c>
-      <c r="E13" t="inlineStr">
-        <is>
-          <t>92.14</t>
-        </is>
-      </c>
-      <c r="F13" t="inlineStr">
-        <is>
-          <t>2.34</t>
-        </is>
-      </c>
-      <c r="G13" t="inlineStr">
-        <is>
-          <t>0.0012</t>
-        </is>
-      </c>
-      <c r="H13" t="n">
-        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2618,7 +2276,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H2"/>
+  <dimension ref="A1:H13"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2639,7 +2297,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2669,36 +2327,454 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>004536</t>
+          <t>161017</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
+          <t>富国中证500指数增强(LOF)</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>59.10</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>90.59</t>
+          <t>91.15</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>4.72</t>
+          <t>1.07</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0104</t>
+          <t>0.6324</t>
         </is>
       </c>
       <c r="H2" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>003318</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>景顺长城中证500行业中性低波动指数</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>15.40</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>94.04</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.2218</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>002076</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0788</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>519677</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>银河定投宝中证腾讯济安价值100A股指数</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>1.09</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>512260</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>华安中证500行业中性低波动ETF</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>96.36</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.48</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0201</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
         <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>007386</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>浙商中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>88.59</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.44</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>006255</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0115</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>004352</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>北信瑞丰研究精选股票</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.78</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>1.36</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0106</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>165524</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>信诚中证智能家居指数（LOF）</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.66</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>94.33</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0081</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.37</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>79.34</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0052</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>0.35</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>006256</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中邮中证价值回报量化策略指数C</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.0012</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>3</v>
       </c>
     </row>
   </sheetData>
@@ -2712,7 +2788,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:H6"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2733,7 +2809,7 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>基金规模</t>
+          <t>基金金额</t>
         </is>
       </c>
       <c r="E1" s="2" t="inlineStr">
@@ -2763,36 +2839,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>002453</t>
+          <t>005994</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合A</t>
+          <t>国投瑞银中证500指数量化增强A</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>0.26</t>
+          <t>1.88</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>88.21</t>
         </is>
       </c>
       <c r="F2" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G2" t="inlineStr">
         <is>
-          <t>0.0083</t>
+          <t>0.0280</t>
         </is>
       </c>
       <c r="H2" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2801,36 +2877,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>002454</t>
+          <t>007089</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>九泰久稳灵活配置混合C</t>
+          <t>国投瑞银中证500指数量化增强C</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>0.22</t>
+          <t>0.45</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>87.99</t>
+          <t>88.21</t>
         </is>
       </c>
       <c r="F3" t="inlineStr">
         <is>
-          <t>3.20</t>
+          <t>1.49</t>
         </is>
       </c>
       <c r="G3" t="inlineStr">
         <is>
-          <t>0.0070</t>
+          <t>0.0067</t>
         </is>
       </c>
       <c r="H3" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
     </row>
     <row r="4">
@@ -2839,112 +2915,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>165524</t>
+          <t>005126</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>信诚中证智能家居指数（LOF）</t>
+          <t>银河量化稳进混合</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>0.40</t>
+          <t>0.11</t>
         </is>
       </c>
       <c r="E4" t="inlineStr">
         <is>
-          <t>94.17</t>
+          <t>80.88</t>
         </is>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>1.20</t>
+          <t>2.81</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>0.0048</t>
+          <t>0.0031</t>
         </is>
       </c>
       <c r="H4" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>004536</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>嘉实中小企业量化活力灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>0.18</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>93.03</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>1.36</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0024</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>013084</t>
-        </is>
-      </c>
-      <c r="C6" t="inlineStr">
-        <is>
-          <t>信诚中证智能家居指数（LOF）C</t>
-        </is>
-      </c>
-      <c r="D6" t="inlineStr">
-        <is>
-          <t>0.03</t>
-        </is>
-      </c>
-      <c r="E6" t="inlineStr">
-        <is>
-          <t>94.17</t>
-        </is>
-      </c>
-      <c r="F6" t="inlineStr">
-        <is>
-          <t>1.20</t>
-        </is>
-      </c>
-      <c r="G6" t="inlineStr">
-        <is>
-          <t>0.0004</t>
-        </is>
-      </c>
-      <c r="H6" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
     </row>
   </sheetData>
@@ -2958,128 +2958,128 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
   <sheetData>
     <row r="1">
-      <c r="B1" s="2" t="inlineStr">
-        <is>
-          <t>日期</t>
-        </is>
-      </c>
-      <c r="C1" s="2" t="inlineStr">
-        <is>
-          <t>持有数量(只)</t>
-        </is>
-      </c>
-      <c r="D1" s="2" t="inlineStr">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
         <is>
           <t>持有市值(亿元)</t>
         </is>
       </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
     </row>
     <row r="2">
-      <c r="A2" s="2" t="n">
+      <c r="A2" s="1" t="n">
         <v>0</v>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>0.02</v>
+          <t>005994</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强A</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>1.75</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.0206</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
-      <c r="A3" s="2" t="n">
+      <c r="A3" s="1" t="n">
         <v>1</v>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>1</v>
-      </c>
-      <c r="D3" t="n">
-        <v>0.01</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="2" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>34</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.63</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="2" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>12</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.04</v>
-      </c>
-    </row>
-    <row r="6">
-      <c r="A6" s="2" t="n">
-        <v>4</v>
-      </c>
-      <c r="B6" t="inlineStr">
-        <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>3</v>
-      </c>
-      <c r="D6" t="n">
-        <v>0.04</v>
-      </c>
-    </row>
-    <row r="7">
-      <c r="A7" s="2" t="n">
-        <v>5</v>
-      </c>
-      <c r="B7" t="inlineStr">
-        <is>
-          <t>2020-Q4</t>
-        </is>
-      </c>
-      <c r="C7" t="n">
-        <v>2</v>
-      </c>
-      <c r="D7" t="n">
-        <v>0.03</v>
+          <t>007089</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>国投瑞银中证500指数量化增强C</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.89</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>
-  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>